--- a/Interrupt_and_Timer_Solutions/PICTimerCalculator.xlsx
+++ b/Interrupt_and_Timer_Solutions/PICTimerCalculator.xlsx
@@ -1295,7 +1295,7 @@
   <dimension ref="A2:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Interrupt_and_Timer_Solutions/PICTimerCalculator.xlsx
+++ b/Interrupt_and_Timer_Solutions/PICTimerCalculator.xlsx
@@ -351,7 +351,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,8 +466,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +548,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -728,7 +740,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -738,8 +750,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -871,10 +884,15 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,8 +1312,8 @@
   </sheetPr>
   <dimension ref="A2:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="J11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1346,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>2</v>
@@ -1375,7 +1393,7 @@
       </c>
       <c r="B4" s="5">
         <f>1/(B3*1000000)</f>
-        <v>3.1249999999999999E-8</v>
+        <v>6.2499999999999997E-8</v>
       </c>
       <c r="C4" s="26"/>
       <c r="F4" s="60"/>
@@ -1400,7 +1418,7 @@
       </c>
       <c r="B5" s="5">
         <f>B4*OSC</f>
-        <v>1.2499999999999999E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="C5" s="26"/>
       <c r="F5" s="60"/>
@@ -1427,7 +1445,7 @@
       </c>
       <c r="B6" s="5">
         <f>B5*1000000</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="C6" s="26"/>
       <c r="F6" s="60"/>
@@ -1451,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>7</v>
@@ -1560,35 +1578,35 @@
       </c>
       <c r="B11" s="19">
         <f t="shared" ref="B11:B17" si="0">B12*2</f>
-        <v>4.0959999999999998E-3</v>
+        <v>8.1919999999999996E-3</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" ref="C11:C17" si="1">B11*256</f>
-        <v>1.048576</v>
+        <v>2.0971519999999999</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" ref="D11:D17" si="2">1/C11</f>
-        <v>0.95367431640625</v>
+        <v>0.476837158203125</v>
       </c>
       <c r="E11" s="23">
         <f t="shared" ref="E11:E16" si="3">IF(($B$7/B11)&gt;255,"N/A",(255-$B$7/B11))</f>
-        <v>10.859375</v>
+        <v>242.79296875</v>
       </c>
       <c r="F11" s="15" t="str">
         <f t="shared" ref="F11:F17" si="4">IF(E11&lt;&gt;"N/A",DEC2HEX(E11,2),"N/A")</f>
-        <v>0A</v>
+        <v>F2</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ref="G11:G17" si="5">B11*65536</f>
-        <v>268.43545599999999</v>
+        <v>536.87091199999998</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" ref="H11:H17" si="6">1/G11</f>
-        <v>3.7252902984619141E-3</v>
+        <v>1.862645149230957E-3</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" ref="I11:I17" si="7">IF($B$7/B11&gt;65535,"N/A",65535-$B$7/B11)</f>
-        <v>65290.859375</v>
+        <v>65522.79296875</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="25"/>
@@ -1612,35 +1630,35 @@
       </c>
       <c r="B12" s="19">
         <f t="shared" si="0"/>
-        <v>2.0479999999999999E-3</v>
+        <v>4.0959999999999998E-3</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="1"/>
-        <v>0.52428799999999998</v>
+        <v>1.048576</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="2"/>
-        <v>1.9073486328125</v>
-      </c>
-      <c r="E12" s="23" t="str">
+        <v>0.95367431640625</v>
+      </c>
+      <c r="E12" s="23">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>230.5859375</v>
       </c>
       <c r="F12" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N/A</v>
+        <v>E6</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="5"/>
-        <v>134.21772799999999</v>
+        <v>268.43545599999999</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="6"/>
-        <v>7.4505805969238281E-3</v>
+        <v>3.7252902984619141E-3</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="7"/>
-        <v>65046.71875</v>
+        <v>65510.5859375</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="25"/>
@@ -1660,35 +1678,35 @@
       </c>
       <c r="B13" s="19">
         <f t="shared" si="0"/>
-        <v>1.024E-3</v>
+        <v>2.0479999999999999E-3</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="1"/>
-        <v>0.26214399999999999</v>
+        <v>0.52428799999999998</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="2"/>
-        <v>3.814697265625</v>
-      </c>
-      <c r="E13" s="23" t="str">
+        <v>1.9073486328125</v>
+      </c>
+      <c r="E13" s="23">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>206.171875</v>
       </c>
       <c r="F13" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N/A</v>
+        <v>CE</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="5"/>
-        <v>67.108863999999997</v>
+        <v>134.21772799999999</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="6"/>
-        <v>1.4901161193847656E-2</v>
+        <v>7.4505805969238281E-3</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="7"/>
-        <v>64558.4375</v>
+        <v>65486.171875</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -1708,35 +1726,35 @@
       </c>
       <c r="B14" s="19">
         <f t="shared" si="0"/>
-        <v>5.1199999999999998E-4</v>
+        <v>1.024E-3</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="1"/>
-        <v>0.13107199999999999</v>
+        <v>0.26214399999999999</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="2"/>
-        <v>7.62939453125</v>
-      </c>
-      <c r="E14" s="23" t="str">
+        <v>3.814697265625</v>
+      </c>
+      <c r="E14" s="23">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>157.34375</v>
       </c>
       <c r="F14" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N/A</v>
+        <v>9D</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="5"/>
-        <v>33.554431999999998</v>
+        <v>67.108863999999997</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="6"/>
-        <v>2.9802322387695313E-2</v>
+        <v>1.4901161193847656E-2</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" si="7"/>
-        <v>63581.875</v>
+        <v>65437.34375</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -1756,35 +1774,35 @@
       </c>
       <c r="B15" s="19">
         <f t="shared" si="0"/>
-        <v>2.5599999999999999E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="1"/>
-        <v>6.5535999999999997E-2</v>
+        <v>0.13107199999999999</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="2"/>
-        <v>15.2587890625</v>
-      </c>
-      <c r="E15" s="23" t="str">
+        <v>7.62939453125</v>
+      </c>
+      <c r="E15" s="23">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>59.687499999999972</v>
       </c>
       <c r="F15" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N/A</v>
+        <v>3B</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="5"/>
-        <v>16.777215999999999</v>
+        <v>33.554431999999998</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="6"/>
-        <v>5.9604644775390625E-2</v>
+        <v>2.9802322387695313E-2</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="7"/>
-        <v>61628.75</v>
+        <v>65339.6875</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -1794,7 +1812,7 @@
         <v>24</v>
       </c>
       <c r="O15" s="31">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
@@ -1810,15 +1828,15 @@
       </c>
       <c r="B16" s="19">
         <f t="shared" si="0"/>
-        <v>1.2799999999999999E-4</v>
+        <v>2.5599999999999999E-4</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" si="1"/>
-        <v>3.2767999999999999E-2</v>
+        <v>6.5535999999999997E-2</v>
       </c>
       <c r="D16" s="10">
         <f t="shared" si="2"/>
-        <v>30.517578125</v>
+        <v>15.2587890625</v>
       </c>
       <c r="E16" s="23" t="str">
         <f t="shared" si="3"/>
@@ -1830,15 +1848,15 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" si="5"/>
-        <v>8.3886079999999996</v>
+        <v>16.777215999999999</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="6"/>
-        <v>0.11920928955078125</v>
+        <v>5.9604644775390625E-2</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="7"/>
-        <v>57722.5</v>
+        <v>65144.375</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
@@ -1848,7 +1866,7 @@
         <v>26</v>
       </c>
       <c r="O16" s="31">
-        <v>16384</v>
+        <v>256</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="26"/>
@@ -1864,15 +1882,15 @@
       </c>
       <c r="B17" s="19">
         <f t="shared" si="0"/>
-        <v>6.3999999999999997E-5</v>
+        <v>1.2799999999999999E-4</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="1"/>
-        <v>1.6383999999999999E-2</v>
+        <v>3.2767999999999999E-2</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="2"/>
-        <v>61.03515625</v>
+        <v>30.517578125</v>
       </c>
       <c r="E17" s="23" t="str">
         <f>IF(($B$7/B17)&gt;255,"N/A",(255-$B$7/B17))</f>
@@ -1884,15 +1902,15 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" si="5"/>
-        <v>4.1943039999999998</v>
+        <v>8.3886079999999996</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="6"/>
-        <v>0.2384185791015625</v>
+        <v>0.11920928955078125</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="7"/>
-        <v>49910</v>
+        <v>64753.75</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
@@ -1902,7 +1920,7 @@
         <v>29</v>
       </c>
       <c r="O17" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="26"/>
@@ -1916,15 +1934,15 @@
       </c>
       <c r="B18" s="19">
         <f>$B$5*256</f>
-        <v>3.1999999999999999E-5</v>
+        <v>6.3999999999999997E-5</v>
       </c>
       <c r="C18" s="9">
         <f>B18*256</f>
-        <v>8.1919999999999996E-3</v>
+        <v>1.6383999999999999E-2</v>
       </c>
       <c r="D18" s="10">
         <f>1/C18</f>
-        <v>122.0703125</v>
+        <v>61.03515625</v>
       </c>
       <c r="E18" s="24" t="str">
         <f>IF(B6/B18&gt;255,"N/A",255-B6/B18)</f>
@@ -1936,15 +1954,15 @@
       </c>
       <c r="G18" s="12">
         <f>B18*65536</f>
-        <v>2.0971519999999999</v>
+        <v>4.1943039999999998</v>
       </c>
       <c r="H18" s="11">
         <f>1/G18</f>
-        <v>0.476837158203125</v>
+        <v>0.2384185791015625</v>
       </c>
       <c r="I18" s="10">
         <f>IF($B$7/B18&gt;65535,"N/A",65535-$B$7/B18)</f>
-        <v>34285</v>
+        <v>63972.5</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
@@ -1954,7 +1972,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="29">
         <f>O15/O16/O17*1000000</f>
-        <v>1953.125</v>
+        <v>15625</v>
       </c>
       <c r="Q18" s="26"/>
       <c r="R18" s="3" t="s">
@@ -1969,15 +1987,15 @@
       </c>
       <c r="B19" s="20">
         <f>B5*128</f>
-        <v>1.5999999999999999E-5</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" ref="C19:C25" si="9">B19*256</f>
-        <v>4.0959999999999998E-3</v>
+        <v>8.1919999999999996E-3</v>
       </c>
       <c r="D19" s="13">
         <f t="shared" ref="D19:D26" si="10">1/C19</f>
-        <v>244.140625</v>
+        <v>122.0703125</v>
       </c>
       <c r="E19" s="24" t="str">
         <f>IF(B7/B19&gt;255,"N/A",255-B7/B19)</f>
@@ -1989,15 +2007,15 @@
       </c>
       <c r="G19" s="12">
         <f t="shared" ref="G19:G25" si="11">B19*65536</f>
-        <v>1.048576</v>
+        <v>2.0971519999999999</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" ref="H19:H26" si="12">1/G19</f>
-        <v>0.95367431640625</v>
+        <v>0.476837158203125</v>
       </c>
       <c r="I19" s="13">
         <f>IF(B7/B19&gt;65535,"N/A",65535-B7/B19)</f>
-        <v>3035</v>
+        <v>62410</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
@@ -2017,15 +2035,15 @@
       </c>
       <c r="B20" s="20">
         <f>B5*64</f>
-        <v>7.9999999999999996E-6</v>
+        <v>1.5999999999999999E-5</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="9"/>
-        <v>2.0479999999999999E-3</v>
+        <v>4.0959999999999998E-3</v>
       </c>
       <c r="D20" s="13">
         <f t="shared" si="10"/>
-        <v>488.28125</v>
+        <v>244.140625</v>
       </c>
       <c r="E20" s="24" t="str">
         <f>IF(B7/B20&gt;255,"N/A",255-B7/B20)</f>
@@ -2037,15 +2055,15 @@
       </c>
       <c r="G20" s="12">
         <f t="shared" si="11"/>
-        <v>0.52428799999999998</v>
+        <v>1.048576</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="12"/>
-        <v>1.9073486328125</v>
-      </c>
-      <c r="I20" s="13" t="str">
+        <v>0.95367431640625</v>
+      </c>
+      <c r="I20" s="13">
         <f>IF(B7/B20&gt;65535,"N/A",65535-B7/B20)</f>
-        <v>N/A</v>
+        <v>59285</v>
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
@@ -2057,7 +2075,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="28">
         <f>1/P18</f>
-        <v>5.1199999999999998E-4</v>
+        <v>6.3999999999999997E-5</v>
       </c>
       <c r="Q20" s="26"/>
       <c r="R20" s="26"/>
@@ -2070,15 +2088,15 @@
       </c>
       <c r="B21" s="20">
         <f>B5*32</f>
-        <v>3.9999999999999998E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="9"/>
-        <v>1.024E-3</v>
+        <v>2.0479999999999999E-3</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="10"/>
-        <v>976.5625</v>
+        <v>488.28125</v>
       </c>
       <c r="E21" s="24" t="str">
         <f>IF(B7/B21&gt;255,"N/A",255-B7/B21)</f>
@@ -2090,15 +2108,15 @@
       </c>
       <c r="G21" s="12">
         <f t="shared" si="11"/>
-        <v>0.26214399999999999</v>
+        <v>0.52428799999999998</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="12"/>
-        <v>3.814697265625</v>
-      </c>
-      <c r="I21" s="13" t="str">
+        <v>1.9073486328125</v>
+      </c>
+      <c r="I21" s="13">
         <f>IF(B7/B21&gt;65535,"N/A",65535-B7/B21)</f>
-        <v>N/A</v>
+        <v>53035</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
@@ -2118,15 +2136,15 @@
       </c>
       <c r="B22" s="20">
         <f>B5*16</f>
-        <v>1.9999999999999999E-6</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="9"/>
-        <v>5.1199999999999998E-4</v>
+        <v>1.024E-3</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="10"/>
-        <v>1953.125</v>
+        <v>976.5625</v>
       </c>
       <c r="E22" s="24" t="str">
         <f>IF(B7/B22&gt;255,"N/A",255-B7/B22)</f>
@@ -2138,15 +2156,15 @@
       </c>
       <c r="G22" s="12">
         <f t="shared" si="11"/>
-        <v>0.13107199999999999</v>
+        <v>0.26214399999999999</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="12"/>
-        <v>7.62939453125</v>
-      </c>
-      <c r="I22" s="13" t="str">
+        <v>3.814697265625</v>
+      </c>
+      <c r="I22" s="13">
         <f>IF(B7/B22&gt;65535,"N/A",65535-B7/B22)</f>
-        <v>N/A</v>
+        <v>40535</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
@@ -2156,17 +2174,17 @@
         <v>37</v>
       </c>
       <c r="O22" s="34">
-        <v>1</v>
-      </c>
-      <c r="P22" s="33" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="P22" s="61" t="str">
         <f>CONCATENATE(O22*1000,"ms")</f>
-        <v>1000ms</v>
+        <v>10ms</v>
       </c>
       <c r="Q22" s="26"/>
       <c r="R22" s="26"/>
-      <c r="S22" s="26">
+      <c r="S22" s="62">
         <f>1/(((Frequency*1000)/SourceClockDivider)/PreScaler/PostScaler/(Result+1))</f>
-        <v>1002.4960000000001</v>
+        <v>10.048</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>38</v>
@@ -2178,15 +2196,15 @@
       </c>
       <c r="B23" s="20">
         <f>B5*8</f>
-        <v>9.9999999999999995E-7</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" si="9"/>
-        <v>2.5599999999999999E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" si="10"/>
-        <v>3906.25</v>
+        <v>1953.125</v>
       </c>
       <c r="E23" s="24" t="str">
         <f>IF(B7/B23&gt;255,"N/A",255-B7/B23)</f>
@@ -2198,15 +2216,15 @@
       </c>
       <c r="G23" s="12">
         <f t="shared" si="11"/>
-        <v>6.5535999999999997E-2</v>
+        <v>0.13107199999999999</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="12"/>
-        <v>15.2587890625</v>
-      </c>
-      <c r="I23" s="13" t="str">
+        <v>7.62939453125</v>
+      </c>
+      <c r="I23" s="13">
         <f>IF(B7/B23&gt;65535,"N/A",65535-B7/B23)</f>
-        <v>N/A</v>
+        <v>15534.999999999993</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -2216,7 +2234,7 @@
         <v>40</v>
       </c>
       <c r="O23" s="31">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="26"/>
@@ -2232,15 +2250,15 @@
       </c>
       <c r="B24" s="20">
         <f>B5*4</f>
-        <v>4.9999999999999998E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="9"/>
-        <v>1.2799999999999999E-4</v>
+        <v>2.5599999999999999E-4</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="10"/>
-        <v>7812.5</v>
+        <v>3906.25</v>
       </c>
       <c r="E24" s="24" t="str">
         <f>IF(B7/B24&gt;255,"N/A",255-B7/B24)</f>
@@ -2252,11 +2270,11 @@
       </c>
       <c r="G24" s="12">
         <f t="shared" si="11"/>
-        <v>3.2767999999999999E-2</v>
+        <v>6.5535999999999997E-2</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="12"/>
-        <v>30.517578125</v>
+        <v>15.2587890625</v>
       </c>
       <c r="I24" s="13" t="str">
         <f>IF(B7/B24&gt;65535,"N/A",65535-B7/B24)</f>
@@ -2271,11 +2289,11 @@
       </c>
       <c r="O24" s="26">
         <f>INT( O22/P20/O23)</f>
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="P24" s="33" t="str">
         <f>CONCATENATE("0x",DEC2HEX(Result))</f>
-        <v>0xB1</v>
+        <v>0x9C</v>
       </c>
       <c r="Q24" s="26"/>
       <c r="R24" s="3" t="s">
@@ -2290,15 +2308,15 @@
       </c>
       <c r="B25" s="20">
         <f>B5*2</f>
-        <v>2.4999999999999999E-7</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="9"/>
-        <v>6.3999999999999997E-5</v>
+        <v>1.2799999999999999E-4</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="10"/>
-        <v>15625</v>
+        <v>7812.5</v>
       </c>
       <c r="E25" s="24" t="str">
         <f>IF(B7/B25&gt;255,"N/A",255-B7/B25)</f>
@@ -2310,11 +2328,11 @@
       </c>
       <c r="G25" s="12">
         <f t="shared" si="11"/>
-        <v>1.6383999999999999E-2</v>
+        <v>3.2767999999999999E-2</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="12"/>
-        <v>61.03515625</v>
+        <v>30.517578125</v>
       </c>
       <c r="I25" s="13" t="str">
         <f>IF(B7/B25&gt;65535,"N/A",65535-B7/B25)</f>
@@ -2330,7 +2348,7 @@
       </c>
       <c r="P25" s="35">
         <f>Result*256</f>
-        <v>45312</v>
+        <v>39936</v>
       </c>
       <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
@@ -2343,15 +2361,15 @@
       </c>
       <c r="B26" s="18">
         <f>B5</f>
-        <v>1.2499999999999999E-7</v>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="C26" s="12">
         <f>B5*256</f>
-        <v>3.1999999999999999E-5</v>
+        <v>6.3999999999999997E-5</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" si="10"/>
-        <v>31250</v>
+        <v>15625</v>
       </c>
       <c r="E26" s="24" t="str">
         <f>IF(B7/B26&gt;255,"N/A",255-B7/B26)</f>
@@ -2363,11 +2381,11 @@
       </c>
       <c r="G26" s="12">
         <f>B5*65536</f>
-        <v>8.1919999999999996E-3</v>
+        <v>1.6383999999999999E-2</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="12"/>
-        <v>122.0703125</v>
+        <v>61.03515625</v>
       </c>
       <c r="I26" s="13" t="str">
         <f>IF(B7/B26&gt;65535,"N/A",65535-B7/B26)</f>
@@ -2383,7 +2401,7 @@
       </c>
       <c r="P26" s="35" t="str">
         <f>CONCATENATE("0x",DEC2HEX( Result),"00")</f>
-        <v>0xB100</v>
+        <v>0x9C00</v>
       </c>
       <c r="Q26" s="26"/>
       <c r="R26" s="26"/>
@@ -2463,7 +2481,7 @@
       <c r="N30" s="44"/>
       <c r="O30" s="49" t="str">
         <f>CONCATENATE("Your test value for [",P24,"] d",Result)</f>
-        <v>Your test value for [0xB1] d177</v>
+        <v>Your test value for [0x9C] d156</v>
       </c>
       <c r="P30" s="37">
         <v>177</v>
@@ -2471,7 +2489,7 @@
       <c r="Q30" s="44"/>
       <c r="R30" s="44" t="str">
         <f>CONCATENATE(INT(1/(((Frequency*1000)/SourceClockDivider)/PreScaler/PostScaler/(P30+1))),"ms")</f>
-        <v>1002ms</v>
+        <v>11ms</v>
       </c>
       <c r="S30" s="43" t="s">
         <v>50</v>
